--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31243.70913023171</v>
+        <v>30430.26191834397</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954293</v>
+        <v>2927877.345954291</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>127.0407602113969</v>
       </c>
       <c r="C11" t="n">
         <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
-        <v>280.0985927864969</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>161.730217510373</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0125464443796</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>322.4070376922378</v>
@@ -1388,7 +1388,7 @@
         <v>234.9781829577618</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241306</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.08218037545163</v>
+        <v>84.08218037545164</v>
       </c>
       <c r="T11" t="n">
         <v>130.7597296842795</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>163.296248452629</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W11" t="n">
         <v>269.9124485024232</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y11" t="n">
         <v>300.6093045313685</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>92.72268265898423</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438469</v>
+        <v>78.92267750438471</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196308</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>55.21642595585057</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592884</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>50.25009108602703</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366588</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227654</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.16276991271693</v>
+        <v>48.16276991271694</v>
       </c>
       <c r="S13" t="n">
         <v>118.363767619385</v>
@@ -1591,7 +1591,7 @@
         <v>194.2977051292231</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>139.9428071250262</v>
       </c>
       <c r="Y13" t="n">
         <v>130.8176748810939</v>
@@ -1610,22 +1610,22 @@
         <v>289.1172887419688</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864967</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>301.8407303564023</v>
       </c>
       <c r="F14" t="n">
-        <v>48.4839145975335</v>
+        <v>321.0125464443794</v>
       </c>
       <c r="G14" t="n">
-        <v>322.4070376922377</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>234.9781829577616</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241294</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545151</v>
+        <v>84.08218037545154</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.7597296842794</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>163.2962484526288</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244661</v>
+        <v>70.71020287440184</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.912448502423</v>
       </c>
       <c r="X14" t="n">
         <v>289.2127067351697</v>
       </c>
       <c r="Y14" t="n">
-        <v>300.6093045313684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1529440554385</v>
+        <v>127.1529440554386</v>
       </c>
       <c r="H15" t="n">
         <v>96.15438866313485</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.28834215945722</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S15" t="n">
         <v>145.9169861849574</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.7226826589841</v>
+        <v>92.72268265898411</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438458</v>
+        <v>78.92267750438459</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196297</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774242</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61.95871608592873</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033062</v>
+        <v>55.21642595585291</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366575</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.357292811859923</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271683</v>
+        <v>48.16276991271684</v>
       </c>
       <c r="S16" t="n">
-        <v>118.3637676193848</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>140.8174128706115</v>
       </c>
       <c r="U16" t="n">
         <v>195.3080224141331</v>
@@ -1828,7 +1828,7 @@
         <v>194.2977051292229</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y16" t="n">
         <v>130.8176748810938</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C17" t="n">
-        <v>212.1874972305284</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D17" t="n">
-        <v>203.1688012750564</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E17" t="n">
-        <v>224.9109388449619</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F17" t="n">
-        <v>244.0827549329391</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4772461807973</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H17" t="n">
-        <v>158.0483914463199</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011135</v>
+        <v>7.152388864011025</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283897</v>
+        <v>53.82993817283886</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118843</v>
+        <v>86.36645694118832</v>
       </c>
       <c r="V17" t="n">
-        <v>167.6825575130258</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W17" t="n">
-        <v>192.9826569909827</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2829152237293</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>133.3468600696245</v>
       </c>
       <c r="G18" t="n">
         <v>127.1529440554385</v>
@@ -1986,7 +1986,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409837</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754371</v>
+        <v>15.7928911475436</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944196</v>
+        <v>1.992885992944082</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890233</v>
+        <v>1.061950638890119</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.3959288546016</v>
+        <v>197.3959288546025</v>
       </c>
       <c r="T19" t="n">
-        <v>63.88762135917114</v>
+        <v>63.88762135917103</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3782309026927</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V19" t="n">
-        <v>92.2010275471693</v>
+        <v>92.20102754716919</v>
       </c>
       <c r="W19" t="n">
-        <v>117.3679136177826</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358568</v>
+        <v>63.01301561358557</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965337</v>
+        <v>53.88788336965325</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C20" t="n">
-        <v>212.1874972305284</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D20" t="n">
-        <v>203.1688012750564</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E20" t="n">
-        <v>224.9109388449619</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F20" t="n">
-        <v>244.0827549329391</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4772461807973</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H20" t="n">
-        <v>158.0483914463213</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.152388864011135</v>
+        <v>7.152388864011025</v>
       </c>
       <c r="T20" t="n">
-        <v>53.82993817283897</v>
+        <v>53.82993817283886</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36645694118843</v>
+        <v>86.36645694118832</v>
       </c>
       <c r="V20" t="n">
-        <v>167.6825575130258</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W20" t="n">
-        <v>192.9826569909827</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2829152237293</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>127.1529440554385</v>
       </c>
       <c r="H21" t="n">
-        <v>96.15438866313546</v>
+        <v>96.15438866313485</v>
       </c>
       <c r="I21" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310338</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79289114754371</v>
+        <v>15.7928911475436</v>
       </c>
       <c r="C22" t="n">
-        <v>1.992885992944196</v>
+        <v>1.992885992944082</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.061950638890233</v>
+        <v>1.061950638890119</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440138</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794447</v>
+        <v>41.43397610794435</v>
       </c>
       <c r="T22" t="n">
-        <v>63.88762135917114</v>
+        <v>63.88762135917103</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3782309026927</v>
+        <v>118.3782309026926</v>
       </c>
       <c r="V22" t="n">
-        <v>92.2010275471693</v>
+        <v>92.20102754716919</v>
       </c>
       <c r="W22" t="n">
-        <v>255.4150228600384</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01301561358568</v>
+        <v>63.01301561358557</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.88788336965337</v>
+        <v>209.8498361163114</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1761802728466</v>
+        <v>224.1761802728465</v>
       </c>
       <c r="C23" t="n">
-        <v>212.1874972305284</v>
+        <v>212.1874972305283</v>
       </c>
       <c r="D23" t="n">
-        <v>203.1688012750564</v>
+        <v>203.1688012750562</v>
       </c>
       <c r="E23" t="n">
-        <v>224.9109388449619</v>
+        <v>224.9109388449618</v>
       </c>
       <c r="F23" t="n">
-        <v>244.0827549329391</v>
+        <v>244.0827549329389</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4772461807973</v>
+        <v>245.4772461807972</v>
       </c>
       <c r="H23" t="n">
-        <v>158.0483914463213</v>
+        <v>158.0483914463211</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.152388864011129</v>
+        <v>7.152388864011016</v>
       </c>
       <c r="T23" t="n">
-        <v>53.82993817283898</v>
+        <v>53.82993817283887</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36645694118843</v>
+        <v>86.36645694118832</v>
       </c>
       <c r="V23" t="n">
-        <v>167.6825575130258</v>
+        <v>167.6825575130256</v>
       </c>
       <c r="W23" t="n">
-        <v>192.9826569909827</v>
+        <v>192.9826569909825</v>
       </c>
       <c r="X23" t="n">
-        <v>212.2829152237293</v>
+        <v>212.2829152237292</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.679513019928</v>
+        <v>223.6795130199279</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79289114754371</v>
+        <v>15.7928911475436</v>
       </c>
       <c r="C25" t="n">
-        <v>157.9548387396013</v>
+        <v>1.992885992944082</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.061950638890233</v>
+        <v>1.061950638890119</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.43397610794447</v>
+        <v>41.43397610794435</v>
       </c>
       <c r="T25" t="n">
-        <v>63.88762135917114</v>
+        <v>63.88762135917103</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3782309026927</v>
+        <v>274.3401836493506</v>
       </c>
       <c r="V25" t="n">
-        <v>92.2010275471693</v>
+        <v>92.20102754716919</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3679136177826</v>
+        <v>117.3679136177824</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01301561358568</v>
+        <v>63.01301561358557</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.88788336965337</v>
+        <v>53.88788336965325</v>
       </c>
     </row>
     <row r="26">
@@ -2810,7 +2810,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500859</v>
+        <v>47.81868876500857</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804714</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7942295352245</v>
+        <v>149.7942295352244</v>
       </c>
       <c r="V29" t="n">
         <v>231.1103301070618</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157974</v>
+        <v>79.22066374157973</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698022</v>
+        <v>65.42065858698021</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455861</v>
+        <v>49.0420229845586</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033806</v>
+        <v>47.98977284033805</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852437</v>
+        <v>48.45669716852436</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292627</v>
+        <v>64.48972323292625</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626141</v>
+        <v>53.13104232626139</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487207</v>
+        <v>32.99398650487205</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531244</v>
       </c>
       <c r="S31" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532072</v>
+        <v>127.3153939532071</v>
       </c>
       <c r="U31" t="n">
         <v>181.8060034967287</v>
@@ -3029,25 +3029,25 @@
         <v>287.6039528668827</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245644</v>
+        <v>275.6152698245645</v>
       </c>
       <c r="D32" t="n">
         <v>266.5965738690924</v>
       </c>
       <c r="E32" t="n">
-        <v>288.3387114389979</v>
+        <v>288.338711438998</v>
       </c>
       <c r="F32" t="n">
         <v>307.5105275269751</v>
       </c>
       <c r="G32" t="n">
-        <v>308.9050187748333</v>
+        <v>308.9050187748334</v>
       </c>
       <c r="H32" t="n">
         <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500859</v>
+        <v>47.81868876500864</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804721</v>
       </c>
       <c r="T32" t="n">
-        <v>117.257710766875</v>
+        <v>117.2577107668751</v>
       </c>
       <c r="U32" t="n">
         <v>149.7942295352245</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157974</v>
+        <v>79.2206637415798</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698022</v>
+        <v>65.42065858698028</v>
       </c>
       <c r="D34" t="n">
-        <v>49.04202298455861</v>
+        <v>49.04202298455867</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033806</v>
+        <v>47.98977284033812</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852437</v>
+        <v>48.45669716852443</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292627</v>
+        <v>64.48972323292632</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626139</v>
+        <v>53.13104232626145</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487206</v>
+        <v>32.99398650487212</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531247</v>
+        <v>34.66075099531253</v>
       </c>
       <c r="S34" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T34" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U34" t="n">
         <v>181.8060034967287</v>
       </c>
       <c r="V34" t="n">
-        <v>155.6288001412053</v>
+        <v>155.6288001412054</v>
       </c>
       <c r="W34" t="n">
         <v>180.7956862118186</v>
       </c>
       <c r="X34" t="n">
-        <v>126.4407882076217</v>
+        <v>126.4407882076218</v>
       </c>
       <c r="Y34" t="n">
-        <v>117.3156559636894</v>
+        <v>117.3156559636895</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.5163481499653</v>
+        <v>237.5163481499651</v>
       </c>
       <c r="C35" t="n">
-        <v>225.527665107647</v>
+        <v>225.5276651076469</v>
       </c>
       <c r="D35" t="n">
-        <v>216.508969152175</v>
+        <v>216.5089691521748</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2511067220806</v>
+        <v>238.2511067220804</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4229228100577</v>
+        <v>257.4229228100576</v>
       </c>
       <c r="G35" t="n">
-        <v>258.8174140579159</v>
+        <v>258.8174140579158</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3885593234399</v>
+        <v>171.3885593234398</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112979</v>
+        <v>20.49255674112962</v>
       </c>
       <c r="T35" t="n">
-        <v>67.17010604995764</v>
+        <v>67.17010604995747</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830709</v>
+        <v>99.70662481830692</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0227253901444</v>
+        <v>181.0227253901442</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3228248681013</v>
+        <v>206.3228248681012</v>
       </c>
       <c r="X35" t="n">
-        <v>225.6230831008479</v>
+        <v>225.6230831008478</v>
       </c>
       <c r="Y35" t="n">
-        <v>237.0196808970467</v>
+        <v>237.0196808970465</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466237</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C37" t="n">
-        <v>15.33305387006286</v>
+        <v>15.33305387006268</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600889</v>
+        <v>14.40211851600872</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609344026</v>
+        <v>3.043437609343856</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>74.29098035118959</v>
+        <v>74.29098035119105</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628979</v>
+        <v>77.22778923628962</v>
       </c>
       <c r="U37" t="n">
-        <v>131.7183987798113</v>
+        <v>131.7183987798111</v>
       </c>
       <c r="V37" t="n">
-        <v>105.541195424288</v>
+        <v>105.5411954242878</v>
       </c>
       <c r="W37" t="n">
-        <v>130.7080814949012</v>
+        <v>130.7080814949011</v>
       </c>
       <c r="X37" t="n">
-        <v>76.35318349070434</v>
+        <v>76.35318349070417</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677203</v>
+        <v>67.22805124677186</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.5163481499652</v>
+        <v>237.5163481499653</v>
       </c>
       <c r="C38" t="n">
         <v>225.527665107647</v>
       </c>
       <c r="D38" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E38" t="n">
         <v>238.2511067220805</v>
       </c>
       <c r="F38" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G38" t="n">
         <v>258.8174140579159</v>
       </c>
       <c r="H38" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.4925567411297</v>
+        <v>20.49255674112976</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995755</v>
+        <v>67.17010604995761</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830701</v>
+        <v>99.70662481830706</v>
       </c>
       <c r="V38" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W38" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X38" t="n">
         <v>225.6230831008479</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.0196808970466</v>
+        <v>237.0196808970467</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466229</v>
+        <v>29.13305902466234</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006277</v>
+        <v>15.33305387006283</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600881</v>
+        <v>14.40211851600886</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343941</v>
+        <v>3.043437609343998</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.601992861725996</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440138</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.77414398506304</v>
+        <v>54.7741439850631</v>
       </c>
       <c r="T40" t="n">
-        <v>77.22778923628971</v>
+        <v>77.22778923628977</v>
       </c>
       <c r="U40" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V40" t="n">
-        <v>105.5411954242879</v>
+        <v>125.0580317904146</v>
       </c>
       <c r="W40" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070425</v>
+        <v>76.35318349070431</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677194</v>
+        <v>67.228051246772</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.6498953907906</v>
+        <v>29.1330590246622</v>
       </c>
       <c r="C43" t="n">
         <v>15.33305387006268</v>
@@ -3913,7 +3913,7 @@
         <v>14.40211851600872</v>
       </c>
       <c r="H43" t="n">
-        <v>3.043437609343855</v>
+        <v>3.043437609343856</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>76.35318349070417</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.22805124677186</v>
+        <v>86.74488761290004</v>
       </c>
     </row>
     <row r="44">
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506304</v>
+        <v>74.29098035119037</v>
       </c>
       <c r="T46" t="n">
         <v>77.22778923628971</v>
       </c>
       <c r="U46" t="n">
-        <v>151.2352351459385</v>
+        <v>131.7183987798112</v>
       </c>
       <c r="V46" t="n">
         <v>105.5411954242879</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1738.169291978459</v>
+        <v>905.6823582171843</v>
       </c>
       <c r="C11" t="n">
-        <v>1446.131626582531</v>
+        <v>613.6446928212561</v>
       </c>
       <c r="D11" t="n">
-        <v>1163.203755081019</v>
+        <v>613.6446928212561</v>
       </c>
       <c r="E11" t="n">
-        <v>999.8398990099355</v>
+        <v>613.6446928212561</v>
       </c>
       <c r="F11" t="n">
-        <v>675.5848015913703</v>
+        <v>613.6446928212561</v>
       </c>
       <c r="G11" t="n">
-        <v>349.9211271547664</v>
+        <v>287.9810183846523</v>
       </c>
       <c r="H11" t="n">
-        <v>112.5694271974313</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I11" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J11" t="n">
-        <v>50.62931842731714</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K11" t="n">
-        <v>358.6187566067425</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L11" t="n">
-        <v>790.6768958565434</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M11" t="n">
-        <v>1277.574482823758</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N11" t="n">
-        <v>1751.079753389619</v>
+        <v>1868.349012376772</v>
       </c>
       <c r="O11" t="n">
-        <v>2145.954364034585</v>
+        <v>2263.223623021737</v>
       </c>
       <c r="P11" t="n">
-        <v>2450.813248612012</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.465921365857</v>
@@ -5069,22 +5069,22 @@
         <v>2446.534426037118</v>
       </c>
       <c r="T11" t="n">
-        <v>2314.453891002491</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="U11" t="n">
-        <v>2314.453891002491</v>
+        <v>2149.508185494785</v>
       </c>
       <c r="V11" t="n">
-        <v>2314.453891002491</v>
+        <v>1902.425004661991</v>
       </c>
       <c r="W11" t="n">
-        <v>2041.815054131357</v>
+        <v>1629.786167790856</v>
       </c>
       <c r="X11" t="n">
-        <v>2041.815054131357</v>
+        <v>1337.652120583614</v>
       </c>
       <c r="Y11" t="n">
-        <v>1738.169291978459</v>
+        <v>1034.006358430717</v>
       </c>
     </row>
     <row r="12">
@@ -5094,61 +5094,61 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8133128779676</v>
+        <v>916.8133128779672</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1096401189225</v>
+        <v>755.109640118922</v>
       </c>
       <c r="D12" t="n">
-        <v>616.2710031091347</v>
+        <v>616.2710031091342</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2429931660058</v>
+        <v>469.2429931660054</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5491951158802</v>
+        <v>334.5491951158797</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1118778881641</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H12" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I12" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J12" t="n">
-        <v>50.62931842731714</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K12" t="n">
-        <v>326.203808759672</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L12" t="n">
-        <v>753.9911953756168</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M12" t="n">
-        <v>935.0807557888481</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.571119459616</v>
+        <v>1714.772304204091</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.672185824252</v>
+        <v>2174.873370568727</v>
       </c>
       <c r="P12" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q12" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.760525245194</v>
+        <v>2489.760525245193</v>
       </c>
       <c r="S12" t="n">
         <v>2342.369630108873</v>
       </c>
       <c r="T12" t="n">
-        <v>2154.858197092099</v>
+        <v>2154.858197092098</v>
       </c>
       <c r="U12" t="n">
         <v>1936.382561450211</v>
@@ -5160,10 +5160,10 @@
         <v>1466.671070131855</v>
       </c>
       <c r="X12" t="n">
-        <v>1268.75408200965</v>
+        <v>1268.754082009649</v>
       </c>
       <c r="Y12" t="n">
-        <v>1076.232755659229</v>
+        <v>1076.232755659228</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>421.1390085730203</v>
+        <v>186.1233623265446</v>
       </c>
       <c r="C13" t="n">
-        <v>341.419132305965</v>
+        <v>106.4034860594894</v>
       </c>
       <c r="D13" t="n">
-        <v>278.2433324049922</v>
+        <v>106.4034860594894</v>
       </c>
       <c r="E13" t="n">
-        <v>278.2433324049922</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="F13" t="n">
-        <v>215.6587707020338</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9011029383701</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H13" t="n">
-        <v>97.59498047002072</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62931842731714</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413172</v>
+        <v>96.79005415413171</v>
       </c>
       <c r="K13" t="n">
-        <v>246.2990519958641</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L13" t="n">
         <v>470.584712840536</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447746</v>
+        <v>714.1904553447745</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068813</v>
+        <v>957.3332466068812</v>
       </c>
       <c r="O13" t="n">
         <v>1177.722352077497</v>
@@ -5227,22 +5227,22 @@
         <v>1259.89823519289</v>
       </c>
       <c r="T13" t="n">
-        <v>1117.658424212475</v>
+        <v>1117.658424212474</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911279</v>
+        <v>920.3775934911275</v>
       </c>
       <c r="V13" t="n">
-        <v>749.5383823208149</v>
+        <v>749.5383823208145</v>
       </c>
       <c r="W13" t="n">
-        <v>553.2780741094788</v>
+        <v>553.2780741094782</v>
       </c>
       <c r="X13" t="n">
-        <v>553.2780741094788</v>
+        <v>411.9217032761184</v>
       </c>
       <c r="Y13" t="n">
-        <v>421.1390085730203</v>
+        <v>279.7826377396599</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1299.52398959743</v>
+        <v>1209.163407821774</v>
       </c>
       <c r="C14" t="n">
-        <v>1007.486324201501</v>
+        <v>917.1257424258458</v>
       </c>
       <c r="D14" t="n">
-        <v>724.5584526999896</v>
+        <v>917.1257424258458</v>
       </c>
       <c r="E14" t="n">
-        <v>724.5584526999896</v>
+        <v>612.2361158032172</v>
       </c>
       <c r="F14" t="n">
-        <v>675.5848015913698</v>
+        <v>287.9810183846521</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9211271547661</v>
+        <v>287.9810183846521</v>
       </c>
       <c r="H14" t="n">
-        <v>112.5694271974312</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I14" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J14" t="n">
         <v>167.8985774144699</v>
       </c>
       <c r="K14" t="n">
-        <v>475.8880155938954</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L14" t="n">
-        <v>907.9461548436963</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M14" t="n">
         <v>1394.843741810911</v>
       </c>
       <c r="N14" t="n">
-        <v>1868.349012376772</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O14" t="n">
-        <v>2263.223623021738</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P14" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.43366893284</v>
       </c>
       <c r="Q14" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R14" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S14" t="n">
-        <v>2446.534426037118</v>
+        <v>2446.534426037117</v>
       </c>
       <c r="T14" t="n">
-        <v>2446.534426037118</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="U14" t="n">
-        <v>2446.534426037118</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="V14" t="n">
-        <v>2199.451245204324</v>
+        <v>2078.083738146905</v>
       </c>
       <c r="W14" t="n">
-        <v>2199.451245204324</v>
+        <v>1805.444901275771</v>
       </c>
       <c r="X14" t="n">
-        <v>1907.317197997082</v>
+        <v>1513.310854068529</v>
       </c>
       <c r="Y14" t="n">
-        <v>1603.671435844184</v>
+        <v>1513.310854068529</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779671</v>
       </c>
       <c r="C15" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189218</v>
       </c>
       <c r="D15" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091339</v>
       </c>
       <c r="E15" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660051</v>
       </c>
       <c r="F15" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158795</v>
       </c>
       <c r="G15" t="n">
         <v>206.1118778881637</v>
@@ -5352,22 +5352,22 @@
         <v>108.986232773886</v>
       </c>
       <c r="I15" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J15" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K15" t="n">
-        <v>326.203808759672</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L15" t="n">
-        <v>377.7365381371094</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M15" t="n">
-        <v>935.0807557888477</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.571119459616</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O15" t="n">
         <v>1980.672185824251</v>
@@ -5376,7 +5376,7 @@
         <v>2337.264736621381</v>
       </c>
       <c r="Q15" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R15" t="n">
         <v>2489.760525245193</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>469.7195441403222</v>
+        <v>186.1233623265469</v>
       </c>
       <c r="C16" t="n">
-        <v>389.999667873267</v>
+        <v>106.4034860594918</v>
       </c>
       <c r="D16" t="n">
-        <v>326.8238679722943</v>
+        <v>106.4034860594918</v>
       </c>
       <c r="E16" t="n">
-        <v>264.7109470048777</v>
+        <v>106.4034860594918</v>
       </c>
       <c r="F16" t="n">
-        <v>202.1263853019194</v>
+        <v>106.4034860594918</v>
       </c>
       <c r="G16" t="n">
-        <v>123.3468477763329</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="H16" t="n">
-        <v>56.04072530798372</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I16" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413184</v>
+        <v>96.79005415413212</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958643</v>
+        <v>246.2990519958647</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405363</v>
+        <v>470.5847128405366</v>
       </c>
       <c r="M16" t="n">
         <v>714.1904553447753</v>
@@ -5464,22 +5464,22 @@
         <v>1259.898235192891</v>
       </c>
       <c r="T16" t="n">
-        <v>1259.898235192891</v>
+        <v>1117.658424212476</v>
       </c>
       <c r="U16" t="n">
-        <v>1062.617404471545</v>
+        <v>920.3775934911292</v>
       </c>
       <c r="V16" t="n">
-        <v>891.778193301232</v>
+        <v>749.5383823208164</v>
       </c>
       <c r="W16" t="n">
-        <v>695.5178850898958</v>
+        <v>553.27807410948</v>
       </c>
       <c r="X16" t="n">
-        <v>695.5178850898958</v>
+        <v>411.9217032761205</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.3788195534374</v>
+        <v>279.7826377396622</v>
       </c>
     </row>
     <row r="17">
@@ -5489,58 +5489,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1351.513793084491</v>
+        <v>1351.513793084492</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.182987801129</v>
+        <v>1137.18298780113</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9619764121833</v>
+        <v>931.9619764121848</v>
       </c>
       <c r="E17" t="n">
-        <v>704.7792099021207</v>
+        <v>704.7792099021224</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961218</v>
+        <v>458.2309725961235</v>
       </c>
       <c r="G17" t="n">
-        <v>210.2741582720847</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J17" t="n">
         <v>167.8985774144699</v>
       </c>
       <c r="K17" t="n">
-        <v>475.8880155938954</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L17" t="n">
-        <v>907.9461548436963</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M17" t="n">
-        <v>1394.843741810911</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N17" t="n">
-        <v>1868.349012376772</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O17" t="n">
-        <v>2263.223623021738</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P17" t="n">
-        <v>2379.433668932841</v>
+        <v>2379.43366893284</v>
       </c>
       <c r="Q17" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R17" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.241286149684</v>
+        <v>2524.241286149683</v>
       </c>
       <c r="T17" t="n">
         <v>2469.867611227624</v>
@@ -5552,13 +5552,13 @@
         <v>2213.252445112256</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.320468353687</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.893281259011</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.95437921868</v>
+        <v>1577.954379218681</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779671</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189218</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091339</v>
       </c>
       <c r="E18" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660051</v>
       </c>
       <c r="F18" t="n">
         <v>334.5491951158793</v>
@@ -5589,49 +5589,49 @@
         <v>108.986232773886</v>
       </c>
       <c r="I18" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J18" t="n">
-        <v>137.8463925088448</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K18" t="n">
-        <v>413.4208828411997</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L18" t="n">
-        <v>571.9377228815849</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.281940533323</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N18" t="n">
-        <v>1714.772304204091</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O18" t="n">
-        <v>2174.873370568727</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P18" t="n">
-        <v>2531.465921365857</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q18" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R18" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T18" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V18" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X18" t="n">
         <v>1268.754082009649</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.71501199482665</v>
+        <v>53.71501199482642</v>
       </c>
       <c r="C19" t="n">
-        <v>51.70199584033757</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="D19" t="n">
-        <v>51.70199584033757</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70199584033757</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70199584033757</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="G19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="H19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K19" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L19" t="n">
-        <v>248.2096550833889</v>
+        <v>248.2096550833888</v>
       </c>
       <c r="M19" t="n">
         <v>403.7082365724611</v>
@@ -5686,37 +5686,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O19" t="n">
-        <v>691.0258112748514</v>
+        <v>691.0258112748513</v>
       </c>
       <c r="P19" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="R19" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="S19" t="n">
-        <v>583.5418640732089</v>
+        <v>583.5418640732079</v>
       </c>
       <c r="T19" t="n">
-        <v>519.0089132053592</v>
+        <v>519.0089132053583</v>
       </c>
       <c r="U19" t="n">
-        <v>399.4349425965788</v>
+        <v>399.434942596578</v>
       </c>
       <c r="V19" t="n">
-        <v>306.3025915388321</v>
+        <v>306.3025915388314</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7491434400618</v>
+        <v>187.7491434400612</v>
       </c>
       <c r="X19" t="n">
-        <v>124.0996327192682</v>
+        <v>124.0996327192677</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.66742729537586</v>
+        <v>69.66742729537552</v>
       </c>
     </row>
     <row r="20">
@@ -5729,64 +5729,64 @@
         <v>1351.513793084493</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.182987801131</v>
+        <v>1137.182987801132</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121851</v>
+        <v>931.9619764121858</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021228</v>
+        <v>704.7792099021234</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961238</v>
+        <v>458.2309725961245</v>
       </c>
       <c r="G20" t="n">
-        <v>210.2741582720861</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H20" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I20" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J20" t="n">
-        <v>167.8985774144699</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K20" t="n">
-        <v>475.8880155938954</v>
+        <v>358.6187566067425</v>
       </c>
       <c r="L20" t="n">
-        <v>907.9461548436963</v>
+        <v>790.6768958565434</v>
       </c>
       <c r="M20" t="n">
-        <v>1394.843741810911</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N20" t="n">
-        <v>1868.349012376772</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O20" t="n">
         <v>2074.574784355413</v>
       </c>
       <c r="P20" t="n">
-        <v>2379.433668932841</v>
+        <v>2379.43366893284</v>
       </c>
       <c r="Q20" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R20" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.241286149685</v>
+        <v>2524.241286149684</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U20" t="n">
         <v>2382.628765832485</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112258</v>
       </c>
       <c r="W20" t="n">
         <v>2018.320468353689</v>
@@ -5795,7 +5795,7 @@
         <v>1803.893281259013</v>
       </c>
       <c r="Y20" t="n">
-        <v>1577.954379218681</v>
+        <v>1577.954379218682</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.8133128779675</v>
+        <v>916.8133128779671</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1096401189222</v>
+        <v>755.1096401189218</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091343</v>
+        <v>616.2710031091339</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2429931660055</v>
+        <v>469.2429931660051</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158799</v>
+        <v>334.5491951158795</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1118778881643</v>
+        <v>206.1118778881638</v>
       </c>
       <c r="H21" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738862</v>
       </c>
       <c r="I21" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J21" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088447</v>
       </c>
       <c r="K21" t="n">
-        <v>144.1503362656402</v>
+        <v>413.4208828411996</v>
       </c>
       <c r="L21" t="n">
-        <v>571.9377228815849</v>
+        <v>841.2082694571443</v>
       </c>
       <c r="M21" t="n">
-        <v>1129.281940533323</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N21" t="n">
-        <v>1714.772304204091</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="O21" t="n">
-        <v>2174.873370568727</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P21" t="n">
-        <v>2531.465921365857</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q21" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R21" t="n">
         <v>2489.760525245193</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T21" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V21" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X21" t="n">
         <v>1268.754082009649</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.71501199482665</v>
+        <v>53.71501199482642</v>
       </c>
       <c r="C22" t="n">
-        <v>51.70199584033757</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="D22" t="n">
-        <v>51.70199584033757</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="E22" t="n">
-        <v>51.70199584033757</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033757</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="G22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="H22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J22" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K22" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L22" t="n">
-        <v>248.2096550833889</v>
+        <v>248.2096550833888</v>
       </c>
       <c r="M22" t="n">
         <v>403.7082365724611</v>
@@ -5923,37 +5923,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O22" t="n">
-        <v>691.0258112748514</v>
+        <v>691.0258112748513</v>
       </c>
       <c r="P22" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="Q22" t="n">
-        <v>764.8358896794717</v>
+        <v>782.931691199069</v>
       </c>
       <c r="R22" t="n">
-        <v>764.8358896794717</v>
+        <v>782.931691199069</v>
       </c>
       <c r="S22" t="n">
-        <v>722.9833885603359</v>
+        <v>741.0791900799333</v>
       </c>
       <c r="T22" t="n">
-        <v>658.4504376924863</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U22" t="n">
-        <v>538.8764670837058</v>
+        <v>556.9722686033034</v>
       </c>
       <c r="V22" t="n">
-        <v>445.7441160259591</v>
+        <v>463.8399175455568</v>
       </c>
       <c r="W22" t="n">
-        <v>187.7491434400618</v>
+        <v>345.2864694467866</v>
       </c>
       <c r="X22" t="n">
-        <v>124.0996327192682</v>
+        <v>281.6369587259931</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.66742729537586</v>
+        <v>69.66742729537552</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121851</v>
+        <v>931.9619764121849</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021226</v>
+        <v>704.7792099021225</v>
       </c>
       <c r="F23" t="n">
         <v>458.2309725961236</v>
       </c>
       <c r="G23" t="n">
-        <v>210.2741582720861</v>
+        <v>210.274158272086</v>
       </c>
       <c r="H23" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I23" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J23" t="n">
-        <v>50.62931842731715</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K23" t="n">
-        <v>358.6187566067426</v>
+        <v>475.8880155938953</v>
       </c>
       <c r="L23" t="n">
-        <v>790.6768958565435</v>
+        <v>907.9461548436961</v>
       </c>
       <c r="M23" t="n">
-        <v>1277.574482823758</v>
+        <v>1394.843741810911</v>
       </c>
       <c r="N23" t="n">
-        <v>1751.079753389619</v>
+        <v>1868.349012376772</v>
       </c>
       <c r="O23" t="n">
-        <v>2145.954364034585</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P23" t="n">
-        <v>2450.813248612012</v>
+        <v>2379.43366893284</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.465921365857</v>
+        <v>2531.465921365856</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.241286149685</v>
+        <v>2524.241286149684</v>
       </c>
       <c r="T23" t="n">
-        <v>2469.867611227625</v>
+        <v>2469.867611227624</v>
       </c>
       <c r="U23" t="n">
         <v>2382.628765832485</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.252445112258</v>
+        <v>2213.252445112257</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353689</v>
+        <v>2018.320468353688</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259013</v>
+        <v>1803.893281259012</v>
       </c>
       <c r="Y23" t="n">
         <v>1577.954379218681</v>
@@ -6051,7 +6051,7 @@
         <v>616.2710031091337</v>
       </c>
       <c r="E24" t="n">
-        <v>469.242993166005</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F24" t="n">
         <v>334.5491951158793</v>
@@ -6060,31 +6060,31 @@
         <v>206.1118778881637</v>
       </c>
       <c r="H24" t="n">
-        <v>108.9862327738861</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I24" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J24" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K24" t="n">
-        <v>326.2038087596721</v>
+        <v>326.203808759672</v>
       </c>
       <c r="L24" t="n">
         <v>753.9911953756168</v>
       </c>
       <c r="M24" t="n">
-        <v>1311.335413027355</v>
+        <v>935.0807557888472</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.825776698123</v>
+        <v>1520.571119459615</v>
       </c>
       <c r="O24" t="n">
-        <v>2356.926843062759</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P24" t="n">
-        <v>2531.465921365856</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.465921365856</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.252338001551</v>
+        <v>53.71501199482642</v>
       </c>
       <c r="C25" t="n">
-        <v>51.70199584033759</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="D25" t="n">
-        <v>51.70199584033759</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="E25" t="n">
-        <v>51.70199584033759</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70199584033759</v>
+        <v>51.70199584033745</v>
       </c>
       <c r="G25" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="I25" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="J25" t="n">
-        <v>50.62931842731715</v>
+        <v>50.62931842731712</v>
       </c>
       <c r="K25" t="n">
         <v>112.0311552538833</v>
       </c>
       <c r="L25" t="n">
-        <v>248.2096550833889</v>
+        <v>248.2096550833888</v>
       </c>
       <c r="M25" t="n">
         <v>403.7082365724611</v>
@@ -6160,37 +6160,37 @@
         <v>558.7438668194015</v>
       </c>
       <c r="O25" t="n">
-        <v>691.0258112748514</v>
+        <v>691.0258112748513</v>
       </c>
       <c r="P25" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="Q25" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="R25" t="n">
-        <v>782.9316911990691</v>
+        <v>782.931691199069</v>
       </c>
       <c r="S25" t="n">
         <v>741.0791900799333</v>
       </c>
       <c r="T25" t="n">
-        <v>676.5462392120836</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U25" t="n">
-        <v>556.9722686033032</v>
+        <v>399.434942596578</v>
       </c>
       <c r="V25" t="n">
-        <v>463.8399175455564</v>
+        <v>306.3025915388314</v>
       </c>
       <c r="W25" t="n">
-        <v>345.2864694467862</v>
+        <v>187.7491434400612</v>
       </c>
       <c r="X25" t="n">
-        <v>281.6369587259925</v>
+        <v>124.0996327192677</v>
       </c>
       <c r="Y25" t="n">
-        <v>227.2047533021002</v>
+        <v>69.66742729537552</v>
       </c>
     </row>
     <row r="26">
@@ -6233,16 +6233,16 @@
         <v>1231.659656648232</v>
       </c>
       <c r="M26" t="n">
-        <v>1820.031403358843</v>
+        <v>1718.704328321547</v>
       </c>
       <c r="N26" t="n">
-        <v>2395.010833668101</v>
+        <v>2293.683758630805</v>
       </c>
       <c r="O26" t="n">
-        <v>2891.359604056463</v>
+        <v>2790.032529019167</v>
       </c>
       <c r="P26" t="n">
-        <v>3297.692648377288</v>
+        <v>3196.365573339991</v>
       </c>
       <c r="Q26" t="n">
         <v>3449.871985516404</v>
@@ -6254,7 +6254,7 @@
         <v>3424.723957701281</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613529</v>
+        <v>3306.281825613528</v>
       </c>
       <c r="U26" t="n">
         <v>3154.974523052696</v>
@@ -6263,7 +6263,7 @@
         <v>2921.529745166775</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242513</v>
+        <v>2662.529311242514</v>
       </c>
       <c r="X26" t="n">
         <v>2384.033666982144</v>
@@ -6315,13 +6315,13 @@
         <v>1417.843509683229</v>
       </c>
       <c r="N27" t="n">
-        <v>1539.862142033961</v>
+        <v>2003.333873353997</v>
       </c>
       <c r="O27" t="n">
-        <v>1999.963208398597</v>
+        <v>2463.434939718632</v>
       </c>
       <c r="P27" t="n">
-        <v>2356.555759195726</v>
+        <v>2463.434939718632</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.756943940202</v>
@@ -6382,16 +6382,16 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J28" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567082</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266707</v>
+        <v>292.3240720266711</v>
       </c>
       <c r="L28" t="n">
-        <v>529.976731599573</v>
+        <v>529.9767315995734</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320423</v>
+        <v>786.9494728320424</v>
       </c>
       <c r="N28" t="n">
         <v>1043.45926282238</v>
@@ -6400,10 +6400,10 @@
         <v>1277.215367021226</v>
       </c>
       <c r="P28" t="n">
-        <v>1470.59540668884</v>
+        <v>1470.595406688841</v>
       </c>
       <c r="Q28" t="n">
-        <v>1554.333871362879</v>
+        <v>1554.33387136288</v>
       </c>
       <c r="R28" t="n">
         <v>1519.323011771655</v>
@@ -6412,19 +6412,19 @@
         <v>1413.402053486826</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.800645453283</v>
+        <v>1284.800645453284</v>
       </c>
       <c r="U28" t="n">
         <v>1101.15821767881</v>
       </c>
       <c r="V28" t="n">
-        <v>943.9574094553702</v>
+        <v>943.9574094553707</v>
       </c>
       <c r="W28" t="n">
-        <v>761.335504190907</v>
+        <v>761.3355041909075</v>
       </c>
       <c r="X28" t="n">
-        <v>633.6175363044205</v>
+        <v>633.6175363044209</v>
       </c>
       <c r="Y28" t="n">
         <v>515.1168737148356</v>
@@ -6437,67 +6437,67 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476239</v>
+        <v>1803.517264476238</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027184</v>
+        <v>1525.118002027183</v>
       </c>
       <c r="D29" t="n">
         <v>1255.828533472545</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967895</v>
+        <v>964.5773097967891</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250975</v>
+        <v>653.960615325097</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353669</v>
+        <v>341.9353438353664</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
       </c>
       <c r="I29" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J29" t="n">
         <v>288.6637597322124</v>
       </c>
       <c r="K29" t="n">
-        <v>596.800282617738</v>
+        <v>642.9453471844804</v>
       </c>
       <c r="L29" t="n">
-        <v>1130.332581610936</v>
+        <v>1176.477646177678</v>
       </c>
       <c r="M29" t="n">
-        <v>1718.704328321547</v>
+        <v>1764.849392888289</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.683758630805</v>
+        <v>2339.828823197547</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019167</v>
+        <v>2836.177593585909</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.365573339991</v>
+        <v>3242.510637906733</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516404</v>
+        <v>3496.017050083146</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083146</v>
       </c>
       <c r="S29" t="n">
-        <v>3424.723957701281</v>
+        <v>3424.72395770128</v>
       </c>
       <c r="T29" t="n">
-        <v>3306.281825613529</v>
+        <v>3306.281825613527</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052696</v>
+        <v>3154.974523052695</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.529745166775</v>
+        <v>2921.529745166774</v>
       </c>
       <c r="W29" t="n">
         <v>2662.529311242513</v>
@@ -6525,7 +6525,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E30" t="n">
-        <v>488.5340157403508</v>
+        <v>488.5340157403507</v>
       </c>
       <c r="F30" t="n">
         <v>353.8402176902251</v>
@@ -6537,28 +6537,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I30" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J30" t="n">
         <v>157.1374150831905</v>
       </c>
       <c r="K30" t="n">
-        <v>432.7119054155455</v>
+        <v>397.0275607114552</v>
       </c>
       <c r="L30" t="n">
-        <v>860.4992920314902</v>
+        <v>397.0275607114552</v>
       </c>
       <c r="M30" t="n">
-        <v>1417.843509683229</v>
+        <v>954.3717783631935</v>
       </c>
       <c r="N30" t="n">
-        <v>1539.862142033961</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O30" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P30" t="n">
-        <v>2356.555759195726</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.756943940202</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485928</v>
+        <v>435.0960012485932</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284108</v>
+        <v>369.0145279284112</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743111</v>
+        <v>319.4771309743115</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537677</v>
+        <v>271.0026129537681</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976824</v>
+        <v>222.0564541976829</v>
       </c>
       <c r="G31" t="n">
-        <v>156.915319618969</v>
+        <v>156.9153196189695</v>
       </c>
       <c r="H31" t="n">
         <v>103.2476000974933</v>
       </c>
       <c r="I31" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J31" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567078</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3240720266708</v>
+        <v>292.3240720266707</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995731</v>
+        <v>529.976731599573</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320419</v>
+        <v>786.949472832042</v>
       </c>
       <c r="N31" t="n">
         <v>1043.459262822379</v>
@@ -6640,13 +6640,13 @@
         <v>1470.59540668884</v>
       </c>
       <c r="Q31" t="n">
-        <v>1554.33387136288</v>
+        <v>1554.333871362879</v>
       </c>
       <c r="R31" t="n">
-        <v>1519.323011771655</v>
+        <v>1519.323011771654</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486825</v>
       </c>
       <c r="T31" t="n">
         <v>1284.800645453283</v>
@@ -6658,13 +6658,13 @@
         <v>943.95740945537</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909067</v>
+        <v>761.3355041909068</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044201</v>
+        <v>633.6175363044202</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.116873714835</v>
+        <v>515.1168737148354</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.517264476237</v>
+        <v>1803.517264476238</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.118002027182</v>
+        <v>1525.118002027183</v>
       </c>
       <c r="D32" t="n">
         <v>1255.828533472544</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967881</v>
+        <v>964.5773097967887</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250961</v>
+        <v>653.9606153250966</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353655</v>
+        <v>341.9353438353658</v>
       </c>
       <c r="H32" t="n">
-        <v>118.2220468249039</v>
+        <v>118.222046824904</v>
       </c>
       <c r="I32" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J32" t="n">
-        <v>288.6637597322124</v>
+        <v>187.3366846949154</v>
       </c>
       <c r="K32" t="n">
-        <v>596.800282617738</v>
+        <v>596.8002826177375</v>
       </c>
       <c r="L32" t="n">
-        <v>1130.332581610936</v>
+        <v>1130.332581610935</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.704328321547</v>
+        <v>1718.704328321546</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.683758630805</v>
+        <v>2293.683758630804</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.032529019167</v>
+        <v>2790.032529019166</v>
       </c>
       <c r="P32" t="n">
-        <v>3196.365573339991</v>
+        <v>3196.36557333999</v>
       </c>
       <c r="Q32" t="n">
-        <v>3449.871985516404</v>
+        <v>3449.871985516403</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083146</v>
       </c>
       <c r="S32" t="n">
         <v>3424.723957701281</v>
@@ -6731,19 +6731,19 @@
         <v>3306.281825613528</v>
       </c>
       <c r="U32" t="n">
-        <v>3154.974523052695</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166774</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242513</v>
       </c>
       <c r="X32" t="n">
-        <v>2384.033666982143</v>
+        <v>2384.033666982144</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.02630777612</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>635.5620256834795</v>
       </c>
       <c r="E33" t="n">
-        <v>488.5340157403508</v>
+        <v>488.5340157403507</v>
       </c>
       <c r="F33" t="n">
         <v>353.8402176902251</v>
@@ -6774,28 +6774,28 @@
         <v>128.2772553482318</v>
       </c>
       <c r="I33" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J33" t="n">
         <v>157.1374150831905</v>
       </c>
       <c r="K33" t="n">
-        <v>432.7119054155455</v>
+        <v>432.7119054155454</v>
       </c>
       <c r="L33" t="n">
-        <v>860.4992920314902</v>
+        <v>860.4992920314901</v>
       </c>
       <c r="M33" t="n">
-        <v>1417.843509683229</v>
+        <v>1417.843509683228</v>
       </c>
       <c r="N33" t="n">
-        <v>1539.862142033961</v>
+        <v>1539.862142033962</v>
       </c>
       <c r="O33" t="n">
         <v>1999.963208398597</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.555759195726</v>
+        <v>2356.555759195727</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.756943940202</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485933</v>
+        <v>435.0960012485937</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284112</v>
+        <v>369.0145279284116</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743116</v>
+        <v>319.4771309743119</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537681</v>
+        <v>271.0026129537683</v>
       </c>
       <c r="F34" t="n">
-        <v>222.0564541976829</v>
+        <v>222.056454197683</v>
       </c>
       <c r="G34" t="n">
-        <v>156.9153196189695</v>
+        <v>156.9153196189696</v>
       </c>
       <c r="H34" t="n">
         <v>103.2476000974933</v>
       </c>
       <c r="I34" t="n">
-        <v>69.92034100166293</v>
+        <v>69.92034100166292</v>
       </c>
       <c r="J34" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567079</v>
       </c>
       <c r="K34" t="n">
-        <v>292.3240720266716</v>
+        <v>292.3240720266707</v>
       </c>
       <c r="L34" t="n">
-        <v>529.9767315995739</v>
+        <v>529.9767315995729</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320428</v>
+        <v>786.9494728320418</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O34" t="n">
-        <v>1277.215367021226</v>
+        <v>1277.215367021225</v>
       </c>
       <c r="P34" t="n">
         <v>1470.595406688841</v>
@@ -6880,28 +6880,28 @@
         <v>1554.33387136288</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771655</v>
+        <v>1519.323011771656</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486827</v>
       </c>
       <c r="T34" t="n">
         <v>1284.800645453284</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.15821767881</v>
+        <v>1101.158217678811</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553706</v>
+        <v>943.9574094553711</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909074</v>
+        <v>761.3355041909078</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044208</v>
+        <v>633.6175363044213</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148359</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D35" t="n">
-        <v>989.7116209018759</v>
+        <v>989.7116209018762</v>
       </c>
       <c r="E35" t="n">
-        <v>749.0539373442188</v>
+        <v>749.0539373442193</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906251</v>
+        <v>489.0307829906257</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189935</v>
+        <v>227.5990516189933</v>
       </c>
       <c r="H35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I35" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J35" t="n">
-        <v>171.7485537137825</v>
+        <v>171.7485537137826</v>
       </c>
       <c r="K35" t="n">
         <v>479.737991893208</v>
@@ -6956,10 +6956,10 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q35" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R35" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S35" t="n">
         <v>2703.265184067726</v>
@@ -6974,7 +6974,7 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W35" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X35" t="n">
         <v>1915.542593939082</v>
@@ -7011,25 +7011,25 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I36" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J36" t="n">
-        <v>141.6963688081575</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K36" t="n">
-        <v>417.2708591405124</v>
+        <v>330.0537850589848</v>
       </c>
       <c r="L36" t="n">
-        <v>845.0582457564572</v>
+        <v>757.8411716749295</v>
       </c>
       <c r="M36" t="n">
-        <v>1295.523282885289</v>
+        <v>938.9307320881596</v>
       </c>
       <c r="N36" t="n">
-        <v>1881.013646556057</v>
+        <v>1524.421095758928</v>
       </c>
       <c r="O36" t="n">
-        <v>2341.114712920693</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P36" t="n">
         <v>2341.114712920693</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.58900179270643</v>
+        <v>87.5890017927059</v>
       </c>
       <c r="C37" t="n">
-        <v>72.10106859062273</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="D37" t="n">
-        <v>72.10106859062273</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="E37" t="n">
-        <v>72.10106859062273</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="F37" t="n">
-        <v>72.10106859062273</v>
+        <v>72.10106859062238</v>
       </c>
       <c r="G37" t="n">
-        <v>57.55347413000769</v>
+        <v>57.5534741300075</v>
       </c>
       <c r="H37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J37" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K37" t="n">
         <v>115.881131553196</v>
@@ -7102,43 +7102,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M37" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N37" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O37" t="n">
-        <v>694.8757875741642</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R37" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S37" t="n">
-        <v>711.7402732042509</v>
+        <v>711.7402732042492</v>
       </c>
       <c r="T37" t="n">
-        <v>633.7324052888067</v>
+        <v>633.7324052888051</v>
       </c>
       <c r="U37" t="n">
-        <v>500.6835176324316</v>
+        <v>500.6835176324303</v>
       </c>
       <c r="V37" t="n">
-        <v>394.0762495270902</v>
+        <v>394.076249527089</v>
       </c>
       <c r="W37" t="n">
-        <v>262.0478843807253</v>
+        <v>262.0478843807243</v>
       </c>
       <c r="X37" t="n">
-        <v>184.9234566123371</v>
+        <v>184.9234566123363</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.0163341408502</v>
+        <v>117.0163341408495</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669373</v>
+        <v>1436.213271669372</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338415</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018764</v>
+        <v>989.7116209018752</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442193</v>
+        <v>749.0539373442182</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906258</v>
+        <v>489.0307829906246</v>
       </c>
       <c r="G38" t="n">
         <v>227.5990516189934</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J38" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137826</v>
       </c>
       <c r="K38" t="n">
-        <v>479.7379918932081</v>
+        <v>479.737991893208</v>
       </c>
       <c r="L38" t="n">
-        <v>911.7961311430095</v>
+        <v>911.796131143009</v>
       </c>
       <c r="M38" t="n">
-        <v>1398.693718110224</v>
+        <v>1398.693718110223</v>
       </c>
       <c r="N38" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O38" t="n">
-        <v>2267.073599321051</v>
+        <v>2267.07359932105</v>
       </c>
       <c r="P38" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q38" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="R38" t="n">
-        <v>2723.964736331494</v>
+        <v>2723.964736331493</v>
       </c>
       <c r="S38" t="n">
         <v>2703.265184067726</v>
@@ -7205,19 +7205,19 @@
         <v>2635.416592098072</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655337</v>
       </c>
       <c r="V38" t="n">
         <v>2351.851591887515</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939081</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851156</v>
+        <v>1676.128774851155</v>
       </c>
     </row>
     <row r="39">
@@ -7248,10 +7248,10 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J39" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K39" t="n">
         <v>330.0537850589848</v>
@@ -7260,10 +7260,10 @@
         <v>757.8411716749295</v>
       </c>
       <c r="M39" t="n">
-        <v>938.9307320881596</v>
+        <v>1315.185389326668</v>
       </c>
       <c r="N39" t="n">
-        <v>1524.421095758928</v>
+        <v>1900.675752997436</v>
       </c>
       <c r="O39" t="n">
         <v>1984.522162123563</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.20717640051021</v>
+        <v>87.58900179270633</v>
       </c>
       <c r="C40" t="n">
-        <v>73.7192431984266</v>
+        <v>72.10106859062266</v>
       </c>
       <c r="D40" t="n">
-        <v>73.7192431984266</v>
+        <v>72.10106859062266</v>
       </c>
       <c r="E40" t="n">
-        <v>73.7192431984266</v>
+        <v>72.10106859062266</v>
       </c>
       <c r="F40" t="n">
-        <v>73.7192431984266</v>
+        <v>72.10106859062266</v>
       </c>
       <c r="G40" t="n">
-        <v>59.17164873781164</v>
+        <v>57.55347413000764</v>
       </c>
       <c r="H40" t="n">
-        <v>56.09746933443392</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="I40" t="n">
-        <v>56.09746933443392</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662988</v>
+        <v>54.47929472662987</v>
       </c>
       <c r="K40" t="n">
         <v>115.881131553196</v>
@@ -7339,43 +7339,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M40" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N40" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O40" t="n">
-        <v>694.8757875741642</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P40" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q40" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R40" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S40" t="n">
-        <v>713.3584478120541</v>
+        <v>731.4542493316512</v>
       </c>
       <c r="T40" t="n">
-        <v>635.3505798966099</v>
+        <v>653.446381416207</v>
       </c>
       <c r="U40" t="n">
-        <v>502.301692240235</v>
+        <v>520.3974937598321</v>
       </c>
       <c r="V40" t="n">
-        <v>395.6944241348937</v>
+        <v>394.07624952709</v>
       </c>
       <c r="W40" t="n">
-        <v>263.6660589885289</v>
+        <v>262.0478843807252</v>
       </c>
       <c r="X40" t="n">
-        <v>186.5416312201407</v>
+        <v>184.923456612337</v>
       </c>
       <c r="Y40" t="n">
-        <v>118.6345087486539</v>
+        <v>117.0163341408501</v>
       </c>
     </row>
     <row r="41">
@@ -7394,7 +7394,7 @@
         <v>989.7116209018768</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442198</v>
+        <v>749.0539373442199</v>
       </c>
       <c r="F41" t="n">
         <v>489.0307829906264</v>
@@ -7412,10 +7412,10 @@
         <v>171.7485537137826</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932081</v>
+        <v>479.737991893208</v>
       </c>
       <c r="L41" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430089</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110223</v>
@@ -7488,25 +7488,25 @@
         <v>54.47929472662987</v>
       </c>
       <c r="J42" t="n">
-        <v>54.47929472662987</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K42" t="n">
-        <v>330.0537850589848</v>
+        <v>413.9001941851121</v>
       </c>
       <c r="L42" t="n">
-        <v>757.8411716749295</v>
+        <v>841.6875808010568</v>
       </c>
       <c r="M42" t="n">
-        <v>1315.185389326668</v>
+        <v>1399.031798452795</v>
       </c>
       <c r="N42" t="n">
-        <v>1900.675752997436</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="O42" t="n">
-        <v>2360.776819362071</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.315897665168</v>
+        <v>2341.114712920693</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.315897665168</v>
@@ -7576,43 +7576,43 @@
         <v>252.0596313827016</v>
       </c>
       <c r="M43" t="n">
-        <v>407.5582128717739</v>
+        <v>407.5582128717738</v>
       </c>
       <c r="N43" t="n">
-        <v>562.5938431187143</v>
+        <v>562.5938431187142</v>
       </c>
       <c r="O43" t="n">
-        <v>694.8757875741642</v>
+        <v>694.875787574164</v>
       </c>
       <c r="P43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="Q43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="R43" t="n">
-        <v>786.7816674983818</v>
+        <v>786.7816674983816</v>
       </c>
       <c r="S43" t="n">
-        <v>731.4542493316516</v>
+        <v>731.4542493316513</v>
       </c>
       <c r="T43" t="n">
-        <v>653.4463814162075</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U43" t="n">
-        <v>520.3974937598326</v>
+        <v>520.3974937598324</v>
       </c>
       <c r="V43" t="n">
-        <v>413.7902256544915</v>
+        <v>413.7902256544912</v>
       </c>
       <c r="W43" t="n">
-        <v>281.7618605081267</v>
+        <v>281.7618605081265</v>
       </c>
       <c r="X43" t="n">
-        <v>204.6374327397387</v>
+        <v>204.6374327397385</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.730310268252</v>
+        <v>117.0163341408495</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>1436.213271669373</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018759</v>
+        <v>989.7116209018764</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442189</v>
+        <v>749.0539373442193</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906255</v>
+        <v>489.0307829906258</v>
       </c>
       <c r="G44" t="n">
         <v>227.5990516189934</v>
@@ -7646,13 +7646,13 @@
         <v>54.47929472662988</v>
       </c>
       <c r="J44" t="n">
-        <v>171.7485537137827</v>
+        <v>171.7485537137832</v>
       </c>
       <c r="K44" t="n">
         <v>479.7379918932083</v>
       </c>
       <c r="L44" t="n">
-        <v>911.7961311430095</v>
+        <v>911.7961311430092</v>
       </c>
       <c r="M44" t="n">
         <v>1398.693718110224</v>
@@ -7661,7 +7661,7 @@
         <v>1872.198988676085</v>
       </c>
       <c r="O44" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P44" t="n">
         <v>2571.932483898478</v>
@@ -7679,16 +7679,16 @@
         <v>2635.416592098072</v>
       </c>
       <c r="U44" t="n">
-        <v>2534.702829655338</v>
+        <v>2534.702829655339</v>
       </c>
       <c r="V44" t="n">
-        <v>2351.851591887515</v>
+        <v>2351.851591887516</v>
       </c>
       <c r="W44" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.542593939082</v>
+        <v>1915.542593939083</v>
       </c>
       <c r="Y44" t="n">
         <v>1676.128774851156</v>
@@ -7831,10 +7831,10 @@
         <v>786.7816674983818</v>
       </c>
       <c r="S46" t="n">
-        <v>731.4542493316515</v>
+        <v>711.7402732042501</v>
       </c>
       <c r="T46" t="n">
-        <v>653.4463814162073</v>
+        <v>633.7324052888059</v>
       </c>
       <c r="U46" t="n">
         <v>500.6835176324309</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8705,10 +8705,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>227.7839381316908</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.90890232336</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>75.82029131472584</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,10 +8775,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>225.3613735431747</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>351.1546355601959</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>76.93766118339641</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8936,16 +8936,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>568.5510017355793</v>
+        <v>377.9966192443425</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>381.3518698822114</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>122.4415561073551</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,19 +9003,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.82029131472582</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>102.0372395626713</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869879</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9170,7 +9170,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>393.8132110494453</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>227.7839381316903</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9246,13 +9246,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>210.1019978080732</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869879</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>101.3718027669759</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9410,10 +9410,10 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>568.5510017355793</v>
+        <v>496.4504162010623</v>
       </c>
       <c r="O20" t="n">
-        <v>304.4858531503318</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>75.82029131472582</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>159.9124116577342</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,16 +9489,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>619.740374570458</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>47.27246317627819</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.3718027669759</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9650,13 +9650,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
-        <v>495.0402356415689</v>
+        <v>304.485853150332</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.9089023233605</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9723,7 +9723,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>225.3613735431738</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9732,10 +9732,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>230.1092027732997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9963,16 +9963,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>154.9918226869876</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>53.80710347724201</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>165.1417058516483</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10191,16 +10191,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>307.760015485958</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>49.98397756525983</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>154.9918226869876</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>154.9918226869876</v>
+        <v>154.9918226869883</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236958</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10662,7 +10662,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10671,7 +10671,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>497.4578146700442</v>
+        <v>225.3613735431736</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10680,7 +10680,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>53.80710347724199</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10826,7 +10826,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155857</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>75.82029131472582</v>
+        <v>75.82029131472584</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10908,13 +10908,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>225.3613735431735</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>131.965805727922</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11075,7 +11075,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229272</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>75.82029131472582</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>340.4000960401902</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,13 +11151,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>47.27246317627819</v>
       </c>
       <c r="P42" t="n">
-        <v>230.1092027732997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.1059717842871</v>
+        <v>174.0652115728902</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
-        <v>140.1105128460294</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.32070768241307</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>163.2962484526289</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>289.2127067351698</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898421</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.5440419019631</v>
       </c>
       <c r="E13" t="n">
-        <v>61.49179175774253</v>
+        <v>6.275365801891979</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.95871608592886</v>
       </c>
       <c r="G13" t="n">
-        <v>27.7416510643037</v>
+        <v>77.99174215033075</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.63306124366589</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.49600542227655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>139.9428071250262</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>280.0985927864967</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564023</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>272.5286318468459</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>322.4070376922377</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.32070768241297</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842794</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>163.2962484526288</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>173.9021461500643</v>
       </c>
       <c r="W14" t="n">
-        <v>269.912448502423</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>300.6093045313684</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.54404190196298</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>61.49179175774243</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>61.95871608592874</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>22.77531619447773</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>66.63306124366576</v>
       </c>
       <c r="I16" t="n">
-        <v>41.1387126104165</v>
+        <v>46.49600542227644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>140.8174128706115</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250261</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>948478.276916223</v>
+        <v>948478.2769162229</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>948478.2769162232</v>
+        <v>948478.276916223</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440379.0631166999</v>
+        <v>440379.0631167002</v>
       </c>
       <c r="C2" t="n">
         <v>440379.0631166999</v>
       </c>
       <c r="D2" t="n">
-        <v>440379.0631166999</v>
+        <v>440379.0631167001</v>
       </c>
       <c r="E2" t="n">
-        <v>384839.9089188663</v>
+        <v>384839.9089188662</v>
       </c>
       <c r="F2" t="n">
-        <v>384839.9089188663</v>
+        <v>384839.9089188662</v>
       </c>
       <c r="G2" t="n">
-        <v>441383.8347841544</v>
+        <v>441383.8347841541</v>
       </c>
       <c r="H2" t="n">
-        <v>441383.8347841544</v>
+        <v>441383.8347841545</v>
       </c>
       <c r="I2" t="n">
-        <v>441383.8347841544</v>
+        <v>441383.8347841546</v>
       </c>
       <c r="J2" t="n">
         <v>441383.8347841541</v>
       </c>
       <c r="K2" t="n">
-        <v>441383.8347841541</v>
+        <v>441383.8347841538</v>
       </c>
       <c r="L2" t="n">
-        <v>441383.8347841536</v>
+        <v>441383.8347841537</v>
       </c>
       <c r="M2" t="n">
-        <v>441383.8347841547</v>
+        <v>441383.8347841551</v>
       </c>
       <c r="N2" t="n">
-        <v>441383.834784155</v>
+        <v>441383.8347841548</v>
       </c>
       <c r="O2" t="n">
-        <v>441383.8347841547</v>
+        <v>441383.8347841548</v>
       </c>
       <c r="P2" t="n">
         <v>441383.8347841548</v>
@@ -26378,7 +26378,7 @@
         <v>8.85458056083215e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.8332091523</v>
+        <v>61543.83320915241</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613927</v>
+        <v>83547.74167613924</v>
       </c>
       <c r="K3" t="n">
         <v>7.71771218361599e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.8332091523</v>
+        <v>61543.83320915236</v>
       </c>
       <c r="M3" t="n">
-        <v>149683.3109415064</v>
+        <v>149683.3109415066</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.4877956127</v>
+        <v>20455.48779561265</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>401607.4064143078</v>
       </c>
       <c r="E4" t="n">
-        <v>255024.1601164463</v>
+        <v>255024.1601164462</v>
       </c>
       <c r="F4" t="n">
         <v>255024.1601164463</v>
       </c>
       <c r="G4" t="n">
-        <v>310950.7206745581</v>
+        <v>310950.7206745582</v>
       </c>
       <c r="H4" t="n">
-        <v>310950.7206745581</v>
+        <v>310950.7206745582</v>
       </c>
       <c r="I4" t="n">
-        <v>310950.7206745581</v>
+        <v>310950.7206745582</v>
       </c>
       <c r="J4" t="n">
         <v>309193.0084127064</v>
@@ -26448,7 +26448,7 @@
         <v>309193.0084127064</v>
       </c>
       <c r="M4" t="n">
-        <v>308176.3362657601</v>
+        <v>308176.3362657602</v>
       </c>
       <c r="N4" t="n">
         <v>308176.3362657601</v>
@@ -26479,7 +26479,7 @@
         <v>48881.83299975545</v>
       </c>
       <c r="F5" t="n">
-        <v>48881.83299975546</v>
+        <v>48881.83299975545</v>
       </c>
       <c r="G5" t="n">
         <v>55349.24364233074</v>
@@ -26488,22 +26488,22 @@
         <v>55349.24364233074</v>
       </c>
       <c r="I5" t="n">
-        <v>55349.24364233075</v>
+        <v>55349.24364233074</v>
       </c>
       <c r="J5" t="n">
         <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
-        <v>64678.11138462555</v>
+        <v>64678.11138462553</v>
       </c>
       <c r="L5" t="n">
-        <v>64678.11138462555</v>
+        <v>64678.11138462552</v>
       </c>
       <c r="M5" t="n">
+        <v>57153.73105654695</v>
+      </c>
+      <c r="N5" t="n">
         <v>57153.73105654694</v>
-      </c>
-      <c r="N5" t="n">
-        <v>57153.73105654695</v>
       </c>
       <c r="O5" t="n">
         <v>57153.73105654695</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5144.056702392096</v>
+        <v>5139.688129925251</v>
       </c>
       <c r="C6" t="n">
-        <v>5144.056702392212</v>
+        <v>5139.688129925018</v>
       </c>
       <c r="D6" t="n">
-        <v>5144.056702392154</v>
+        <v>5139.688129925134</v>
       </c>
       <c r="E6" t="n">
-        <v>-286896.4237123069</v>
+        <v>-287142.2668682429</v>
       </c>
       <c r="F6" t="n">
-        <v>80933.91580266441</v>
+        <v>80688.07264672832</v>
       </c>
       <c r="G6" t="n">
-        <v>13540.03725811328</v>
+        <v>13540.03725811275</v>
       </c>
       <c r="H6" t="n">
-        <v>75083.87046726562</v>
+        <v>75083.8704672656</v>
       </c>
       <c r="I6" t="n">
-        <v>75083.87046726554</v>
+        <v>75083.87046726566</v>
       </c>
       <c r="J6" t="n">
         <v>-16035.02668931708</v>
       </c>
       <c r="K6" t="n">
-        <v>67512.71498682204</v>
+        <v>67512.71498682183</v>
       </c>
       <c r="L6" t="n">
-        <v>5968.881777669303</v>
+        <v>5968.881777669441</v>
       </c>
       <c r="M6" t="n">
         <v>-73629.54347965869</v>
       </c>
       <c r="N6" t="n">
-        <v>76053.76746184789</v>
+        <v>76053.76746184783</v>
       </c>
       <c r="O6" t="n">
-        <v>55598.27966623482</v>
+        <v>55598.27966623499</v>
       </c>
       <c r="P6" t="n">
         <v>76053.76746184772</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="J2" t="n">
         <v>102.4991512559563</v>
@@ -26713,10 +26713,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="L2" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="M2" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="N2" t="n">
         <v>152.5867559728737</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.866480341464</v>
       </c>
       <c r="G4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.866480341464</v>
       </c>
       <c r="H4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.866480341464</v>
       </c>
       <c r="I4" t="n">
-        <v>632.8664803414644</v>
+        <v>632.866480341464</v>
       </c>
       <c r="J4" t="n">
         <v>874.0042625207867</v>
       </c>
       <c r="K4" t="n">
-        <v>874.0042625207867</v>
+        <v>874.0042625207865</v>
       </c>
       <c r="L4" t="n">
-        <v>874.0042625207867</v>
+        <v>874.0042625207865</v>
       </c>
       <c r="M4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="N4" t="n">
-        <v>680.9911840828735</v>
+        <v>680.9911840828734</v>
       </c>
       <c r="O4" t="n">
         <v>680.9911840828734</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="F2" t="n">
         <v>1.106822570104019e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144038</v>
+        <v>76.92979151144051</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451579</v>
+        <v>25.56935974451567</v>
       </c>
       <c r="K2" t="n">
         <v>9.647140229519987e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144038</v>
+        <v>76.92979151144044</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691737</v>
+        <v>50.0876047169176</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451588</v>
+        <v>25.56935974451581</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.1377821793224</v>
+        <v>241.1377821793227</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="K2" t="n">
         <v>1.106822570104019e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144038</v>
+        <v>76.92979151144051</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451579</v>
+        <v>25.56935974451567</v>
       </c>
       <c r="P2" t="n">
         <v>9.647140229519987e-14</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>632.8664803414642</v>
+        <v>632.8664803414641</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>55.88797492591272</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855181</v>
+        <v>88.99713233855179</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
     </row>
     <row r="15">
@@ -28418,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-13</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-3.765876499528531e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855192</v>
+        <v>88.99713233855191</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I17" t="n">
         <v>150.3178400209649</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H19" t="n">
         <v>155.6301935822177</v>
@@ -28743,7 +28743,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J19" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R19" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>9.964971103335216</v>
+        <v>9.964971103334307</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I20" t="n">
         <v>150.3178400209649</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="21">
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H22" t="n">
         <v>155.6301935822177</v>
@@ -28980,7 +28980,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J22" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R22" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W22" t="n">
-        <v>27.87981460773651</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.9269238499923</v>
+        <v>9.964971103334278</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="I23" t="n">
         <v>150.3178400209649</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C25" t="n">
-        <v>9.964971103335188</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="H25" t="n">
         <v>155.6301935822177</v>
@@ -29217,7 +29217,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J25" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R25" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U25" t="n">
-        <v>165.9269238499923</v>
+        <v>9.964971103334392</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.9269238499923</v>
+        <v>165.9269238499924</v>
       </c>
     </row>
     <row r="26">
@@ -29305,7 +29305,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="M26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102022396</v>
       </c>
       <c r="N26" t="n">
         <v>102.4991512559563</v>
@@ -29317,7 +29317,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1485704102021543</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="R26" t="n">
         <v>102.4991512559563</v>
@@ -29536,7 +29536,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1485704102021259</v>
+        <v>46.75974674024496</v>
       </c>
       <c r="L29" t="n">
         <v>102.4991512559563</v>
@@ -29557,7 +29557,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="R29" t="n">
-        <v>102.4991512559563</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S29" t="n">
         <v>102.4991512559563</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="C32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="D32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="E32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="F32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="G32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="H32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="I32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102017138</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1485704102021259</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="L32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="M32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="N32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="V32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="W32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="X32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="D34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="E34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="F34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="G34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="H34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559571</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="L34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="M34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="N34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559578</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="T34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="W34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I35" t="n">
         <v>150.3178400209649</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,16 +30156,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="H37" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
       </c>
       <c r="J37" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R37" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S37" t="n">
-        <v>133.0699196067472</v>
+        <v>133.0699196067457</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="U37" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5867559728736</v>
+        <v>152.5867559728738</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S38" t="n">
         <v>152.5867559728737</v>
@@ -30402,7 +30402,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J40" t="n">
-        <v>40.7681336921646</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R40" t="n">
         <v>137.1599022512687</v>
@@ -30438,7 +30438,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="V40" t="n">
-        <v>152.5867559728737</v>
+        <v>133.069919606747</v>
       </c>
       <c r="W40" t="n">
         <v>152.5867559728737</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S41" t="n">
         <v>152.5867559728738</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.0699196067454</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="C43" t="n">
         <v>152.5867559728738</v>
@@ -30639,7 +30639,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J43" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R43" t="n">
         <v>137.1599022512687</v>
@@ -30684,7 +30684,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067456</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591272</v>
       </c>
       <c r="S44" t="n">
         <v>152.5867559728737</v>
@@ -30876,7 +30876,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J46" t="n">
-        <v>42.37012655389059</v>
+        <v>42.3701265538906</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,19 +30897,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440139</v>
       </c>
       <c r="R46" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067464</v>
       </c>
       <c r="T46" t="n">
         <v>152.5867559728737</v>
       </c>
       <c r="U46" t="n">
-        <v>133.0699196067465</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V46" t="n">
         <v>152.5867559728737</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H14" t="n">
         <v>5.517746362350223</v>
@@ -31996,37 +31996,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J14" t="n">
-        <v>45.72799466095668</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L14" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S14" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T14" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U14" t="n">
         <v>0.0431021319651427</v>
@@ -32069,34 +32069,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J15" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K15" t="n">
-        <v>46.54943209309721</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N15" t="n">
-        <v>74.97446216933946</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R15" t="n">
         <v>17.89808405654682</v>
@@ -32108,7 +32108,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,28 +32148,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J16" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L16" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M16" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N16" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O16" t="n">
-        <v>34.15989692905068</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P16" t="n">
         <v>29.22969312735335</v>
@@ -32181,7 +32181,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T16" t="n">
         <v>1.032618443314498</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H17" t="n">
         <v>5.517746362350223</v>
@@ -32233,37 +32233,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J17" t="n">
-        <v>45.72799466095668</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L17" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P17" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S17" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T17" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U17" t="n">
         <v>0.0431021319651427</v>
@@ -32306,34 +32306,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J18" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K18" t="n">
-        <v>46.54943209309721</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N18" t="n">
-        <v>74.97446216933946</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O18" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R18" t="n">
         <v>17.89808405654682</v>
@@ -32345,7 +32345,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,28 +32385,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H19" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J19" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L19" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N19" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15989692905068</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P19" t="n">
         <v>29.22969312735335</v>
@@ -32418,7 +32418,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T19" t="n">
         <v>1.032618443314498</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H20" t="n">
         <v>5.517746362350223</v>
@@ -32470,37 +32470,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J20" t="n">
-        <v>45.72799466095668</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L20" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P20" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S20" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T20" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U20" t="n">
         <v>0.0431021319651427</v>
@@ -32543,34 +32543,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J21" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K21" t="n">
-        <v>46.54943209309721</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N21" t="n">
-        <v>74.97446216933946</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O21" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R21" t="n">
         <v>17.89808405654682</v>
@@ -32582,7 +32582,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,28 +32622,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H22" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J22" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L22" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N22" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15989692905068</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P22" t="n">
         <v>29.22969312735335</v>
@@ -32655,7 +32655,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T22" t="n">
         <v>1.032618443314498</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H23" t="n">
         <v>5.517746362350223</v>
@@ -32707,37 +32707,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J23" t="n">
-        <v>45.72799466095668</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L23" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P23" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S23" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T23" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U23" t="n">
         <v>0.0431021319651427</v>
@@ -32780,34 +32780,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J24" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K24" t="n">
-        <v>46.54943209309721</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N24" t="n">
-        <v>74.97446216933946</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O24" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R24" t="n">
         <v>17.89808405654682</v>
@@ -32819,7 +32819,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,28 +32859,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J25" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L25" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N25" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15989692905068</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P25" t="n">
         <v>29.22969312735335</v>
@@ -32892,7 +32892,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T25" t="n">
         <v>1.032618443314498</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H26" t="n">
         <v>5.517746362350223</v>
@@ -32944,37 +32944,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J26" t="n">
-        <v>45.72799466095668</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L26" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P26" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S26" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T26" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U26" t="n">
         <v>0.0431021319651427</v>
@@ -33017,34 +33017,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J27" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K27" t="n">
-        <v>46.54943209309721</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N27" t="n">
-        <v>74.97446216933946</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O27" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R27" t="n">
         <v>17.89808405654682</v>
@@ -33056,7 +33056,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,28 +33096,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H28" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J28" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K28" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L28" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N28" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15989692905068</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P28" t="n">
         <v>29.22969312735335</v>
@@ -33129,7 +33129,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T28" t="n">
         <v>1.032618443314498</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H29" t="n">
         <v>5.517746362350223</v>
@@ -33181,37 +33181,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J29" t="n">
-        <v>45.72799466095668</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K29" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L29" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M29" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N29" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O29" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P29" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R29" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S29" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T29" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U29" t="n">
         <v>0.0431021319651427</v>
@@ -33254,34 +33254,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H30" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I30" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J30" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K30" t="n">
-        <v>46.54943209309721</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L30" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M30" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N30" t="n">
-        <v>74.97446216933946</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O30" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P30" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R30" t="n">
         <v>17.89808405654682</v>
@@ -33293,7 +33293,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,28 +33333,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H31" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I31" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J31" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K31" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L31" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M31" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N31" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O31" t="n">
-        <v>34.15989692905068</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P31" t="n">
         <v>29.22969312735335</v>
@@ -33366,7 +33366,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S31" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T31" t="n">
         <v>1.032618443314498</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H32" t="n">
         <v>5.517746362350223</v>
@@ -33418,37 +33418,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J32" t="n">
-        <v>45.72799466095668</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L32" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R32" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S32" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U32" t="n">
         <v>0.0431021319651427</v>
@@ -33491,34 +33491,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J33" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K33" t="n">
-        <v>46.54943209309721</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933946</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R33" t="n">
         <v>17.89808405654682</v>
@@ -33530,7 +33530,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,28 +33570,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J34" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K34" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N34" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905068</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P34" t="n">
         <v>29.22969312735335</v>
@@ -33603,7 +33603,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T34" t="n">
         <v>1.032618443314498</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H35" t="n">
         <v>5.517746362350223</v>
@@ -33655,37 +33655,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J35" t="n">
-        <v>45.72799466095668</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L35" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P35" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R35" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S35" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U35" t="n">
         <v>0.0431021319651427</v>
@@ -33728,34 +33728,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J36" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K36" t="n">
-        <v>46.54943209309721</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N36" t="n">
-        <v>74.97446216933946</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O36" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R36" t="n">
         <v>17.89808405654682</v>
@@ -33767,7 +33767,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,28 +33807,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H37" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J37" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K37" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N37" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15989692905068</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P37" t="n">
         <v>29.22969312735335</v>
@@ -33840,7 +33840,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T37" t="n">
         <v>1.032618443314498</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H38" t="n">
         <v>5.517746362350223</v>
@@ -33892,37 +33892,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J38" t="n">
-        <v>45.72799466095668</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L38" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P38" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R38" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S38" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U38" t="n">
         <v>0.0431021319651427</v>
@@ -33965,34 +33965,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J39" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K39" t="n">
-        <v>46.54943209309721</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N39" t="n">
-        <v>74.97446216933946</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O39" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R39" t="n">
         <v>17.89808405654682</v>
@@ -34004,7 +34004,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,28 +34044,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J40" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K40" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N40" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15989692905068</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P40" t="n">
         <v>29.22969312735335</v>
@@ -34077,7 +34077,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T40" t="n">
         <v>1.032618443314498</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H41" t="n">
         <v>5.517746362350223</v>
@@ -34129,37 +34129,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J41" t="n">
-        <v>45.72799466095668</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L41" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R41" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S41" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U41" t="n">
         <v>0.0431021319651427</v>
@@ -34202,34 +34202,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J42" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K42" t="n">
-        <v>46.54943209309721</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933946</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R42" t="n">
         <v>17.89808405654682</v>
@@ -34241,7 +34241,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,28 +34281,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J43" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N43" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905068</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P43" t="n">
         <v>29.22969312735335</v>
@@ -34314,7 +34314,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T43" t="n">
         <v>1.032618443314498</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642837</v>
       </c>
       <c r="H44" t="n">
         <v>5.517746362350223</v>
@@ -34366,37 +34366,37 @@
         <v>20.77118678232707</v>
       </c>
       <c r="J44" t="n">
-        <v>45.72799466095668</v>
+        <v>45.72799466095667</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701282</v>
       </c>
       <c r="L44" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611579</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780461</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337915</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427428</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815602</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563509</v>
       </c>
       <c r="R44" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319247</v>
       </c>
       <c r="S44" t="n">
         <v>12.27737290194613</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467653</v>
       </c>
       <c r="U44" t="n">
         <v>0.0431021319651427</v>
@@ -34439,34 +34439,34 @@
         <v>0.2882709215097961</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634083</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736399</v>
       </c>
       <c r="J45" t="n">
         <v>27.23528035194087</v>
       </c>
       <c r="K45" t="n">
-        <v>46.54943209309721</v>
+        <v>46.5494320930972</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588796</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061804</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933946</v>
+        <v>74.97446216933945</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483291</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690131</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149607</v>
       </c>
       <c r="R45" t="n">
         <v>17.89808405654682</v>
@@ -34478,7 +34478,7 @@
         <v>1.161934109067993</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01896519220459186</v>
+        <v>0.01896519220459185</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,28 +34518,28 @@
         <v>0.2416766569459463</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301233</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519915</v>
       </c>
       <c r="J46" t="n">
-        <v>17.08653964607841</v>
+        <v>17.0865396460784</v>
       </c>
       <c r="K46" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608357</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630915</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653592</v>
       </c>
       <c r="N46" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428288</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905068</v>
+        <v>34.15989692905067</v>
       </c>
       <c r="P46" t="n">
         <v>29.22969312735335</v>
@@ -34551,7 +34551,7 @@
         <v>10.86666132049682</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412536</v>
       </c>
       <c r="T46" t="n">
         <v>1.032618443314498</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K11" t="n">
         <v>311.1004426054802</v>
@@ -35425,10 +35425,10 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P11" t="n">
-        <v>307.938267249927</v>
+        <v>117.3838847586903</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.4673462160049</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K12" t="n">
         <v>278.3580710427827</v>
@@ -35495,10 +35495,10 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M12" t="n">
-        <v>182.9187478921529</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4044077482506</v>
+        <v>319.4139566618271</v>
       </c>
       <c r="O12" t="n">
         <v>464.7485518834702</v>
@@ -35507,7 +35507,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466121</v>
+        <v>46.62700578466119</v>
       </c>
       <c r="K13" t="n">
-        <v>151.0191897391237</v>
+        <v>151.0191897391236</v>
       </c>
       <c r="L13" t="n">
         <v>226.5511725703756</v>
@@ -35586,7 +35586,7 @@
         <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415042</v>
+        <v>71.0822888341504</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>118.45379695672</v>
       </c>
       <c r="K14" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L14" t="n">
         <v>436.4223628785867</v>
@@ -35656,16 +35656,16 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N14" t="n">
-        <v>478.2881520867284</v>
+        <v>287.7337695954915</v>
       </c>
       <c r="O14" t="n">
         <v>398.8632430757227</v>
       </c>
       <c r="P14" t="n">
-        <v>270.9518165092109</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K15" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L15" t="n">
-        <v>52.05326199741148</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M15" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4044077482506</v>
+        <v>123.251143788619</v>
       </c>
       <c r="O15" t="n">
         <v>464.7485518834702</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466133</v>
+        <v>46.62700578466131</v>
       </c>
       <c r="K16" t="n">
         <v>151.0191897391238</v>
@@ -35814,7 +35814,7 @@
         <v>246.0664065699381</v>
       </c>
       <c r="N16" t="n">
-        <v>245.5987790526332</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O16" t="n">
         <v>222.6152580511275</v>
@@ -35823,7 +35823,7 @@
         <v>181.8313544842263</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415055</v>
+        <v>71.08228883415052</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>118.45379695672</v>
       </c>
       <c r="K17" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L17" t="n">
         <v>436.4223628785867</v>
       </c>
       <c r="M17" t="n">
-        <v>491.8157444113278</v>
+        <v>301.2613619200908</v>
       </c>
       <c r="N17" t="n">
         <v>478.2881520867284</v>
@@ -35899,7 +35899,7 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P17" t="n">
-        <v>117.3838847586898</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q17" t="n">
         <v>153.567931750521</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K18" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L18" t="n">
-        <v>160.1180202428134</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M18" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4044077482506</v>
+        <v>123.251143788619</v>
       </c>
       <c r="O18" t="n">
         <v>464.7485518834702</v>
@@ -35981,7 +35981,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L19" t="n">
         <v>137.5540402318238</v>
@@ -36051,13 +36051,13 @@
         <v>157.0692742313861</v>
       </c>
       <c r="N19" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O19" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P19" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>118.45379695672</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L20" t="n">
         <v>436.4223628785867</v>
@@ -36130,10 +36130,10 @@
         <v>491.8157444113278</v>
       </c>
       <c r="N20" t="n">
-        <v>478.2881520867284</v>
+        <v>406.1875665522113</v>
       </c>
       <c r="O20" t="n">
-        <v>208.3088605844856</v>
+        <v>398.8632430757227</v>
       </c>
       <c r="P20" t="n">
         <v>307.938267249927</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K21" t="n">
-        <v>94.4656745841647</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L21" t="n">
         <v>432.1084713292371</v>
@@ -36209,16 +36209,16 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4044077482506</v>
+        <v>587.9996956720892</v>
       </c>
       <c r="O21" t="n">
-        <v>464.7485518834702</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>360.1944957546763</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L22" t="n">
         <v>137.5540402318238</v>
@@ -36288,13 +36288,13 @@
         <v>157.0692742313861</v>
       </c>
       <c r="N22" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O22" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P22" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K23" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L23" t="n">
         <v>436.4223628785867</v>
@@ -36370,13 +36370,13 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O23" t="n">
-        <v>398.8632430757227</v>
+        <v>208.3088605844858</v>
       </c>
       <c r="P23" t="n">
         <v>307.938267249927</v>
       </c>
       <c r="Q23" t="n">
-        <v>81.46734621600537</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M24" t="n">
-        <v>562.9739572239781</v>
+        <v>182.9187478921519</v>
       </c>
       <c r="N24" t="n">
         <v>591.4044077482506</v>
@@ -36452,10 +36452,10 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P24" t="n">
-        <v>176.3020992960577</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L25" t="n">
         <v>137.5540402318238</v>
@@ -36525,13 +36525,13 @@
         <v>157.0692742313861</v>
       </c>
       <c r="N25" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O25" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P25" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,19 +36601,19 @@
         <v>538.921514134543</v>
       </c>
       <c r="M26" t="n">
-        <v>594.3148956672841</v>
+        <v>491.96431482153</v>
       </c>
       <c r="N26" t="n">
         <v>580.7873033426847</v>
       </c>
       <c r="O26" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P26" t="n">
-        <v>410.4374185058833</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.7165021607231</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R26" t="n">
         <v>46.61117633004358</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K27" t="n">
         <v>278.3580710427827</v>
@@ -36683,16 +36683,16 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N27" t="n">
-        <v>123.2511437886187</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P27" t="n">
-        <v>360.1944957546763</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.1628128732074</v>
+        <v>88.20404466825191</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.1290247020657</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K28" t="n">
         <v>164.5212086565282</v>
@@ -36771,7 +36771,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58430775155492</v>
+        <v>84.5843077515549</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>220.9529482126763</v>
       </c>
       <c r="K29" t="n">
-        <v>311.2490130156824</v>
+        <v>357.8601893457252</v>
       </c>
       <c r="L29" t="n">
         <v>538.921514134543</v>
@@ -36844,16 +36844,16 @@
         <v>580.7873033426847</v>
       </c>
       <c r="O29" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P29" t="n">
-        <v>410.4374185058833</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q29" t="n">
-        <v>256.0670830064773</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004357</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K30" t="n">
-        <v>278.3580710427827</v>
+        <v>242.3132784123885</v>
       </c>
       <c r="L30" t="n">
-        <v>432.1084713292371</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N30" t="n">
-        <v>123.2511437886187</v>
+        <v>591.4044077482506</v>
       </c>
       <c r="O30" t="n">
         <v>464.7485518834702</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206568</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K31" t="n">
         <v>164.5212086565282</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9529482126763</v>
+        <v>118.6023673669217</v>
       </c>
       <c r="K32" t="n">
-        <v>311.2490130156824</v>
+        <v>413.5995938614365</v>
       </c>
       <c r="L32" t="n">
-        <v>538.921514134543</v>
+        <v>538.9215141345429</v>
       </c>
       <c r="M32" t="n">
-        <v>594.3148956672841</v>
+        <v>594.314895667284</v>
       </c>
       <c r="N32" t="n">
-        <v>580.7873033426847</v>
+        <v>580.7873033426846</v>
       </c>
       <c r="O32" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P32" t="n">
-        <v>410.4374185058833</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.0670830064773</v>
+        <v>256.0670830064772</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004357</v>
+        <v>46.61117633004351</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K33" t="n">
         <v>278.3580710427827</v>
@@ -37157,7 +37157,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N33" t="n">
-        <v>123.2511437886187</v>
+        <v>123.2511437886194</v>
       </c>
       <c r="O33" t="n">
         <v>464.7485518834702</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206568</v>
+        <v>60.12902470206562</v>
       </c>
       <c r="K34" t="n">
-        <v>164.521208656529</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L34" t="n">
-        <v>240.0531914877801</v>
+        <v>240.05319148778</v>
       </c>
       <c r="M34" t="n">
         <v>259.5684254873424</v>
       </c>
       <c r="N34" t="n">
-        <v>259.1007979700375</v>
+        <v>259.1007979700374</v>
       </c>
       <c r="O34" t="n">
-        <v>236.1172769685319</v>
+        <v>236.1172769685318</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016306</v>
+        <v>195.3333734016322</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>118.4537969567199</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K35" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L35" t="n">
         <v>436.4223628785867</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>278.3580710427827</v>
@@ -37391,7 +37391,7 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M36" t="n">
-        <v>455.0151890190224</v>
+        <v>182.9187478921517</v>
       </c>
       <c r="N36" t="n">
         <v>591.4044077482506</v>
@@ -37400,7 +37400,7 @@
         <v>464.7485518834702</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q36" t="n">
         <v>196.1628128732074</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L37" t="n">
         <v>137.5540402318238</v>
@@ -37473,13 +37473,13 @@
         <v>157.0692742313861</v>
       </c>
       <c r="N37" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O37" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P37" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>118.45379695672</v>
       </c>
       <c r="K38" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785869</v>
       </c>
       <c r="M38" t="n">
         <v>491.8157444113278</v>
@@ -37628,13 +37628,13 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M39" t="n">
-        <v>182.9187478921517</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N39" t="n">
         <v>591.4044077482506</v>
       </c>
       <c r="O39" t="n">
-        <v>464.7485518834702</v>
+        <v>84.69334255164379</v>
       </c>
       <c r="P39" t="n">
         <v>360.1944957546763</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L40" t="n">
         <v>137.5540402318238</v>
@@ -37710,13 +37710,13 @@
         <v>157.0692742313861</v>
       </c>
       <c r="N40" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O40" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P40" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>118.45379695672</v>
       </c>
       <c r="K41" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L41" t="n">
         <v>436.4223628785867</v>
@@ -37795,7 +37795,7 @@
         <v>398.8632430757227</v>
       </c>
       <c r="P41" t="n">
-        <v>307.9382672499268</v>
+        <v>307.938267249927</v>
       </c>
       <c r="Q41" t="n">
         <v>153.567931750521</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K42" t="n">
-        <v>278.3580710427827</v>
+        <v>274.9533589666208</v>
       </c>
       <c r="L42" t="n">
         <v>432.1084713292371</v>
@@ -37871,13 +37871,13 @@
         <v>591.4044077482506</v>
       </c>
       <c r="O42" t="n">
-        <v>464.7485518834702</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>176.3020992960577</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L43" t="n">
         <v>137.5540402318238</v>
@@ -37947,13 +37947,13 @@
         <v>157.0692742313861</v>
       </c>
       <c r="N43" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O43" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P43" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>118.45379695672</v>
       </c>
       <c r="K44" t="n">
-        <v>311.1004426054803</v>
+        <v>311.1004426054802</v>
       </c>
       <c r="L44" t="n">
         <v>436.4223628785867</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780565</v>
       </c>
       <c r="K45" t="n">
         <v>278.3580710427827</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057187</v>
       </c>
       <c r="L46" t="n">
         <v>137.5540402318238</v>
@@ -38184,13 +38184,13 @@
         <v>157.0692742313861</v>
       </c>
       <c r="N46" t="n">
-        <v>156.6016467140813</v>
+        <v>156.6016467140812</v>
       </c>
       <c r="O46" t="n">
         <v>133.6181257125756</v>
       </c>
       <c r="P46" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567435</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
